--- a/Monthly/Ljung_Box/Log-Prices/keyence.xlsx
+++ b/Monthly/Ljung_Box/Log-Prices/keyence.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.05204041811217992</v>
+        <v>0.06253386143707397</v>
+      </c>
+      <c r="C2">
+        <v>0.8025349836167185</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2627461419296862</v>
+        <v>0.1322219853005434</v>
+      </c>
+      <c r="C3">
+        <v>0.9360269664120471</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4561602594571241</v>
+        <v>0.2993426833977912</v>
       </c>
       <c r="C4">
-        <v>0.4994239698121713</v>
+        <v>0.9601520563928567</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.7353194553919518</v>
+        <v>0.8683760998300106</v>
       </c>
       <c r="C5">
-        <v>0.6923527300698207</v>
+        <v>0.9290532893904835</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.8049459541212894</v>
+        <v>0.9403031593698953</v>
       </c>
       <c r="C6">
-        <v>0.8482836642838691</v>
+        <v>0.9672356091387414</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.9063559668336514</v>
+        <v>0.9702484507891467</v>
       </c>
       <c r="C7">
-        <v>0.9236471869319088</v>
+        <v>0.9867150263852399</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.194399740306015</v>
+        <v>1.132247845209609</v>
       </c>
       <c r="C8">
-        <v>0.9454135048024814</v>
+        <v>0.9924041506554286</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.36154495207098</v>
+        <v>1.215664613144448</v>
       </c>
       <c r="C9">
-        <v>0.9681558479750882</v>
+        <v>0.9964847504330078</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.12281831064718</v>
+        <v>2.667611407595198</v>
       </c>
       <c r="C10">
-        <v>0.8734127670734327</v>
+        <v>0.9760309160904898</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.604771369705008</v>
+        <v>3.060395607388599</v>
       </c>
       <c r="C11">
-        <v>0.8909079914233783</v>
+        <v>0.979966778459317</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.612121537491048</v>
+        <v>3.074450176251208</v>
       </c>
       <c r="C12">
-        <v>0.935040564760743</v>
+        <v>0.9897049161870719</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4.307068425690589</v>
+        <v>3.902453706964606</v>
       </c>
       <c r="C13">
-        <v>0.9324332312771061</v>
+        <v>0.9851329041417196</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5.670308825858148</v>
+        <v>5.686258445496164</v>
       </c>
       <c r="C14">
-        <v>0.8944320072069796</v>
+        <v>0.9568299367319797</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5.670814133183317</v>
+        <v>5.698353312431976</v>
       </c>
       <c r="C15">
-        <v>0.9317587706815464</v>
+        <v>0.9735312318618852</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5.757517262093648</v>
+        <v>5.721957959936473</v>
       </c>
       <c r="C16">
-        <v>0.9545343034812949</v>
+        <v>0.9840492213767809</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5.945447835805555</v>
+        <v>6.104268192681644</v>
       </c>
       <c r="C17">
-        <v>0.9678477413695836</v>
+        <v>0.9869295348419052</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>5.957211649904555</v>
+        <v>6.108593619256052</v>
       </c>
       <c r="C18">
-        <v>0.9804575449049456</v>
+        <v>0.9924258043974199</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6.212948575102204</v>
+        <v>6.575518859706976</v>
       </c>
       <c r="C19">
-        <v>0.9856276243336808</v>
+        <v>0.9932442984914028</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6.215906881954896</v>
+        <v>6.575687870296734</v>
       </c>
       <c r="C20">
-        <v>0.9916135357402051</v>
+        <v>0.996155426597232</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6.28268740950337</v>
+        <v>6.680386671798699</v>
       </c>
       <c r="C21">
-        <v>0.9949097318898258</v>
+        <v>0.9976091615226592</v>
       </c>
     </row>
   </sheetData>
